--- a/test/fixtures/qiprofile/sarcoma/clinical.xlsx
+++ b/test/fixtures/qiprofile/sarcoma/clinical.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24480" yWindow="1400" windowWidth="22200" windowHeight="13840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-24320" yWindow="160" windowWidth="22200" windowHeight="13840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Birth Date</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Tumor Size</t>
-  </si>
-  <si>
     <t>Lymph Status</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Race</t>
   </si>
   <si>
-    <t>Patient Weight</t>
-  </si>
-  <si>
     <t>Intervention Type</t>
   </si>
   <si>
@@ -160,6 +154,24 @@
   </si>
   <si>
     <t>50-60</t>
+  </si>
+  <si>
+    <t>Lesion Number</t>
+  </si>
+  <si>
+    <t>Tumor Length (mm)</t>
+  </si>
+  <si>
+    <t>Tumor Width (mm)</t>
+  </si>
+  <si>
+    <t>Tumor Depth (mm)</t>
+  </si>
+  <si>
+    <t>Patient Weight (kg)</t>
+  </si>
+  <si>
+    <t>Tumor Size Score</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -300,8 +312,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,8 +337,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -359,6 +380,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -393,6 +415,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -724,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -737,16 +760,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -760,10 +783,10 @@
         <v>21648</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="60">
@@ -774,10 +797,10 @@
         <v>26970</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -810,298 +833,323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF66"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="16" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="10" width="12" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" ht="45">
+    <row r="1" spans="1:36" s="5" customFormat="1" ht="45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1">
+    </row>
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>41852</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H2" s="10">
+        <v>42</v>
+      </c>
+      <c r="I2" s="10">
+        <v>23</v>
+      </c>
+      <c r="J2" s="10">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="M2" s="2">
         <v>40</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3</v>
       </c>
       <c r="N2" s="2">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="O2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1">
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="H3" s="10">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>41894</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10">
+        <v>33</v>
+      </c>
+      <c r="I4" s="10">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="2" customFormat="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="H5" s="10">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10">
+        <v>13</v>
+      </c>
+      <c r="J5" s="10">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41661</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10">
         <v>19</v>
       </c>
-      <c r="D3" s="2">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="I6" s="10">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
         <v>10</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N6" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="2">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="2" customFormat="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>41661</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="S6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1124,18 +1172,21 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1158,18 +1209,21 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1192,15 +1246,21 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1223,15 +1283,21 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1254,15 +1320,18 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1285,15 +1354,18 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1316,15 +1388,18 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1347,15 +1422,18 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1378,15 +1456,18 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1409,15 +1490,18 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1440,15 +1524,18 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1471,15 +1558,18 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1502,15 +1592,18 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1533,15 +1626,18 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1564,15 +1660,18 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1595,15 +1694,18 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1626,15 +1728,18 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1657,15 +1762,18 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1688,15 +1796,18 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1719,15 +1830,18 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1750,15 +1864,18 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1781,15 +1898,18 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1812,15 +1932,18 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1843,15 +1966,18 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1874,15 +2000,18 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1905,15 +2034,18 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1936,15 +2068,18 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1967,15 +2102,18 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1998,15 +2136,18 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2029,15 +2170,18 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2060,15 +2204,18 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2091,15 +2238,18 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -2122,15 +2272,18 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2153,15 +2306,18 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -2184,15 +2340,18 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2215,15 +2374,18 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -2246,15 +2408,18 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2277,15 +2442,18 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2308,15 +2476,18 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2339,15 +2510,18 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -2370,15 +2544,18 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2401,15 +2578,18 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -2432,15 +2612,18 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -2463,15 +2646,18 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -2494,15 +2680,18 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2525,15 +2714,18 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -2556,15 +2748,18 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+    </row>
+    <row r="54" spans="1:36">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -2587,15 +2782,18 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -2618,15 +2816,18 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -2649,15 +2850,18 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+    </row>
+    <row r="57" spans="1:36">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -2680,15 +2884,18 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+    </row>
+    <row r="58" spans="1:36">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -2711,15 +2918,18 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+    </row>
+    <row r="59" spans="1:36">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -2742,15 +2952,18 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+    </row>
+    <row r="60" spans="1:36">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -2773,15 +2986,18 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+    </row>
+    <row r="61" spans="1:36">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -2804,15 +3020,18 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+    </row>
+    <row r="62" spans="1:36">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -2835,15 +3054,18 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+    </row>
+    <row r="63" spans="1:36">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -2866,15 +3088,18 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+    </row>
+    <row r="64" spans="1:36">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -2897,15 +3122,18 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+    </row>
+    <row r="65" spans="1:36">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -2928,15 +3156,18 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+    </row>
+    <row r="66" spans="1:36">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -2959,25 +3190,97 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+    </row>
+    <row r="67" spans="1:36">
+      <c r="A67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+    </row>
+    <row r="68" spans="1:36">
+      <c r="A68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 Q2:Q1048576">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 P2:P1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576 R2:R1048576">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Biopsy,Surgery"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"Carcinosarcoma,Cerebellar,Chondrosarcoma,ClearCell,Dermatofibrosarcoma,Fibrosarcoma,Leiomyosarcoma,Liposarcoma,MFH,MPNST,Osteosarcoma,Rhabdomyosarcoma,Synovial,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3007,22 +3310,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="45">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3030,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>41654</v>
@@ -3050,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1">
         <v>41699</v>
@@ -3070,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>41680</v>
@@ -3415,22 +3718,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="45">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/test/fixtures/qiprofile/sarcoma/clinical.xlsx
+++ b/test/fixtures/qiprofile/sarcoma/clinical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24320" yWindow="160" windowWidth="22200" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="-25300" yWindow="740" windowWidth="22200" windowHeight="13840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/test/fixtures/qiprofile/sarcoma/clinical.xlsx
+++ b/test/fixtures/qiprofile/sarcoma/clinical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25300" yWindow="740" windowWidth="22200" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="-25300" yWindow="740" windowWidth="22200" windowHeight="13840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,6 @@
     <t>Beam Type</t>
   </si>
   <si>
-    <t>Cumulative Amount (mg/kg)</t>
-  </si>
-  <si>
-    <t>Cumulative Amount (Gy/kg)</t>
-  </si>
-  <si>
     <t>Mitotic Count</t>
   </si>
   <si>
@@ -172,13 +166,42 @@
   </si>
   <si>
     <t>Tumor Size Score</t>
+  </si>
+  <si>
+    <t>Cumulative Amount (Gy)</t>
+  </si>
+  <si>
+    <r>
+      <t>Cumulative Amount (mg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BSA)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +242,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -747,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -783,10 +814,10 @@
         <v>21648</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="60">
@@ -800,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -865,34 +896,34 @@
         <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>3</v>
@@ -930,10 +961,10 @@
         <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="10">
         <v>42</v>
@@ -945,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
@@ -1014,10 +1045,10 @@
         <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="10">
         <v>33</v>
@@ -1035,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2">
         <v>2</v>
@@ -1098,10 +1129,10 @@
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="10">
         <v>19</v>
@@ -3298,7 +3329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3308,7 +3339,7 @@
     <col min="3" max="3" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="45">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="61">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -3325,7 +3356,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3336,7 +3367,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>41654</v>
@@ -3356,7 +3387,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>41699</v>
@@ -3376,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1">
         <v>41680</v>
@@ -3706,7 +3737,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3716,7 +3747,7 @@
     <col min="3" max="3" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="45">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="30">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -3733,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/test/fixtures/qiprofile/sarcoma/clinical.xlsx
+++ b/test/fixtures/qiprofile/sarcoma/clinical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25300" yWindow="740" windowWidth="22200" windowHeight="13840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-25300" yWindow="740" windowWidth="22200" windowHeight="13840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Birth Date</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Differentiation</t>
-  </si>
-  <si>
-    <t>Tumor Location</t>
   </si>
   <si>
     <t>Histology</t>
@@ -195,6 +192,27 @@
       </rPr>
       <t xml:space="preserve"> BSA)</t>
     </r>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Sagittal Location</t>
+  </si>
+  <si>
+    <t>Coronal Location</t>
+  </si>
+  <si>
+    <t>Body Part</t>
+  </si>
+  <si>
+    <t>Anterior</t>
+  </si>
+  <si>
+    <t>Posterior</t>
   </si>
 </sst>
 </file>
@@ -273,8 +291,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -376,7 +398,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -412,6 +434,8 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -447,6 +471,8 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,10 +840,10 @@
         <v>21648</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="60">
@@ -831,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -864,30 +890,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AL68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12" style="2"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="10" width="12" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="20" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="12" width="12" style="11" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="5" customFormat="1" ht="45">
+    <row r="1" spans="1:38" s="5" customFormat="1" ht="45">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -896,55 +922,61 @@
         <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+    <row r="2" spans="1:38" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -961,52 +993,58 @@
         <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="10">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="10">
         <v>42</v>
       </c>
-      <c r="I2" s="10">
+      <c r="K2" s="10">
         <v>23</v>
       </c>
-      <c r="J2" s="10">
+      <c r="L2" s="10">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>40</v>
       </c>
       <c r="N2" s="2">
         <v>2</v>
       </c>
       <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2">
         <v>2</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>3</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="T2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" s="2" customFormat="1">
+      <c r="U2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1015,20 +1053,20 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="H3" s="10">
+      <c r="J3" s="10">
         <v>26</v>
       </c>
-      <c r="I3" s="10">
+      <c r="K3" s="10">
         <v>11</v>
       </c>
-      <c r="J3" s="10">
+      <c r="L3" s="10">
         <v>7</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="2" customFormat="1">
+    <row r="4" spans="1:38" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1045,52 +1083,58 @@
         <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="10">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="10">
         <v>33</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="10">
         <v>18</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="10">
         <v>11</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>9</v>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>2</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="2" customFormat="1">
+    <row r="5" spans="1:38" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1099,20 +1143,20 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="H5" s="10">
+      <c r="J5" s="10">
         <v>24</v>
       </c>
-      <c r="I5" s="10">
+      <c r="K5" s="10">
         <v>13</v>
       </c>
-      <c r="J5" s="10">
+      <c r="L5" s="10">
         <v>8</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="2" customFormat="1">
+    <row r="6" spans="1:38" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1129,60 +1173,66 @@
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="10">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="10">
         <v>19</v>
       </c>
-      <c r="I6" s="10">
+      <c r="K6" s="10">
         <v>12</v>
       </c>
-      <c r="J6" s="10">
+      <c r="L6" s="10">
         <v>11</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
         <v>1</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:38">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1207,19 +1257,21 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1244,19 +1296,21 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1281,19 +1335,21 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1318,19 +1374,21 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1355,16 +1413,16 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1389,16 +1447,16 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1423,16 +1481,16 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1457,16 +1515,16 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1491,16 +1549,16 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1525,16 +1583,16 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1559,16 +1617,16 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1593,16 +1651,16 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+    </row>
+    <row r="19" spans="1:38">
       <c r="A19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1627,16 +1685,16 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+    </row>
+    <row r="20" spans="1:38">
       <c r="A20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1661,16 +1719,16 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+    </row>
+    <row r="21" spans="1:38">
       <c r="A21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1695,16 +1753,16 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+    </row>
+    <row r="22" spans="1:38">
       <c r="A22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1729,16 +1787,16 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+    </row>
+    <row r="23" spans="1:38">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1763,16 +1821,16 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1797,16 +1855,16 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1831,16 +1889,16 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1865,16 +1923,16 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1899,16 +1957,16 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1933,16 +1991,16 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1967,16 +2025,16 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2001,16 +2059,16 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2035,16 +2093,16 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+    </row>
+    <row r="32" spans="1:38">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2069,16 +2127,16 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+    </row>
+    <row r="33" spans="1:38">
       <c r="A33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2103,16 +2161,16 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+    </row>
+    <row r="34" spans="1:38">
       <c r="A34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2137,16 +2195,16 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+    </row>
+    <row r="35" spans="1:38">
       <c r="A35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2171,16 +2229,16 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="1:38">
       <c r="A36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2205,16 +2263,16 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+    </row>
+    <row r="37" spans="1:38">
       <c r="A37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2239,16 +2297,16 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+    </row>
+    <row r="38" spans="1:38">
       <c r="A38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2273,16 +2331,16 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+    </row>
+    <row r="39" spans="1:38">
       <c r="A39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2307,16 +2365,16 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+    </row>
+    <row r="40" spans="1:38">
       <c r="A40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2341,16 +2399,16 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+    </row>
+    <row r="41" spans="1:38">
       <c r="A41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2375,16 +2433,16 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+    </row>
+    <row r="42" spans="1:38">
       <c r="A42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2409,16 +2467,16 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+    </row>
+    <row r="43" spans="1:38">
       <c r="A43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2443,16 +2501,16 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+    </row>
+    <row r="44" spans="1:38">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -2477,16 +2535,16 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+    </row>
+    <row r="45" spans="1:38">
       <c r="A45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2511,16 +2569,16 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+    </row>
+    <row r="46" spans="1:38">
       <c r="A46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
       <c r="J46" s="10"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2545,16 +2603,16 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+    </row>
+    <row r="47" spans="1:38">
       <c r="A47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -2579,16 +2637,16 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+    </row>
+    <row r="48" spans="1:38">
       <c r="A48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2613,16 +2671,16 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+    </row>
+    <row r="49" spans="1:38">
       <c r="A49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2647,16 +2705,16 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+    </row>
+    <row r="50" spans="1:38">
       <c r="A50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2681,16 +2739,16 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+    </row>
+    <row r="51" spans="1:38">
       <c r="A51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2715,16 +2773,16 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
-    </row>
-    <row r="52" spans="1:36">
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+    </row>
+    <row r="52" spans="1:38">
       <c r="A52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -2749,16 +2807,16 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+    </row>
+    <row r="53" spans="1:38">
       <c r="A53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -2783,16 +2841,16 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+    </row>
+    <row r="54" spans="1:38">
       <c r="A54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
       <c r="J54" s="10"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -2817,16 +2875,16 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+    </row>
+    <row r="55" spans="1:38">
       <c r="A55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
       <c r="J55" s="10"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -2851,16 +2909,16 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+    </row>
+    <row r="56" spans="1:38">
       <c r="A56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -2885,16 +2943,16 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+    </row>
+    <row r="57" spans="1:38">
       <c r="A57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
       <c r="J57" s="10"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -2919,16 +2977,16 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
       <c r="J58" s="10"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -2953,16 +3011,16 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+    </row>
+    <row r="59" spans="1:38">
       <c r="A59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
       <c r="J59" s="10"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -2987,16 +3045,16 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+    </row>
+    <row r="60" spans="1:38">
       <c r="A60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -3021,16 +3079,16 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+    </row>
+    <row r="61" spans="1:38">
       <c r="A61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
       <c r="J61" s="10"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3055,16 +3113,16 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+    </row>
+    <row r="62" spans="1:38">
       <c r="A62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
       <c r="J62" s="10"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -3089,16 +3147,16 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+    </row>
+    <row r="63" spans="1:38">
       <c r="A63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
       <c r="J63" s="10"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -3123,16 +3181,16 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+    </row>
+    <row r="64" spans="1:38">
       <c r="A64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
       <c r="J64" s="10"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -3157,16 +3215,16 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
-    </row>
-    <row r="65" spans="1:36">
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+    </row>
+    <row r="65" spans="1:38">
       <c r="A65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
       <c r="J65" s="10"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -3191,16 +3249,16 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
-    </row>
-    <row r="66" spans="1:36">
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+    </row>
+    <row r="66" spans="1:38">
       <c r="A66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
       <c r="J66" s="10"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -3225,16 +3283,16 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+    </row>
+    <row r="67" spans="1:38">
       <c r="A67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
       <c r="J67" s="10"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -3259,16 +3317,16 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
-    </row>
-    <row r="68" spans="1:36">
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+    </row>
+    <row r="68" spans="1:38">
       <c r="A68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -3293,26 +3351,34 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 Q2:Q1048576">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576 S2:S1048576">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576 R2:R1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576 R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576 T2:T1048576">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Biopsy,Surgery"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"Carcinosarcoma,Cerebellar,Chondrosarcoma,ClearCell,Dermatofibrosarcoma,Fibrosarcoma,Leiomyosarcoma,Liposarcoma,MFH,MPNST,Osteosarcoma,Rhabdomyosarcoma,Synovial,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
       <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Left,Right"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"Anterior,Posterior"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3329,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3356,7 +3422,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3367,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>41654</v>
@@ -3387,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>41699</v>
@@ -3407,7 +3473,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>41680</v>
@@ -3764,7 +3830,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
